--- a/xlsx/nfeature: 512, hamming_tolerance: 32, k_knn: 7.xlsx
+++ b/xlsx/nfeature: 512, hamming_tolerance: 32, k_knn: 7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.601</v>
+        <v>0.412</v>
       </c>
       <c r="C1" t="n">
         <v>0.001</v>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.961</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>0.002</v>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.864</v>
+        <v>0.711</v>
       </c>
       <c r="C3" t="n">
         <v>0.002</v>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.481</v>
+        <v>0.327</v>
       </c>
       <c r="C4" t="n">
         <v>0.001</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.476</v>
+        <v>0.326</v>
       </c>
       <c r="C5" t="n">
         <v>0.001</v>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.762</v>
+        <v>1.012</v>
       </c>
       <c r="C6" t="n">
         <v>0.003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>0.134</v>
       </c>
       <c r="E6" t="n">
         <v>0.571</v>
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.251</v>
+        <v>1.046</v>
       </c>
       <c r="C7" t="n">
         <v>0.003</v>
       </c>
       <c r="D7" t="n">
-        <v>0.355</v>
+        <v>0.345</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.504</v>
+        <v>1.179</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D8" t="n">
-        <v>0.751</v>
+        <v>0.737</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.262</v>
+        <v>0.92</v>
       </c>
       <c r="C9" t="n">
         <v>0.003</v>
       </c>
       <c r="D9" t="n">
-        <v>0.248</v>
+        <v>0.255</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -689,13 +689,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.576</v>
+        <v>1.326</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D10" t="n">
-        <v>0.327</v>
+        <v>0.305</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.964</v>
+        <v>0.697</v>
       </c>
       <c r="C11" t="n">
         <v>0.002</v>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.141</v>
+        <v>0.924</v>
       </c>
       <c r="C12" t="n">
         <v>0.003</v>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.105</v>
+        <v>0.671</v>
       </c>
       <c r="C13" t="n">
         <v>0.002</v>
       </c>
       <c r="D13" t="n">
-        <v>0.318</v>
+        <v>0.317</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.986</v>
+        <v>0.931</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D14" t="n">
         <v>0.502</v>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.965</v>
+        <v>0.773</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.504</v>
+        <v>0.497</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.752</v>
+        <v>0.582</v>
       </c>
       <c r="C16" t="n">
         <v>0.002</v>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.735</v>
+        <v>0.549</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D17" t="n">
         <v>0.511</v>
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.114</v>
+        <v>0.902</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.542</v>
+        <v>0.539</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.733</v>
+        <v>0.482</v>
       </c>
       <c r="C19" t="n">
         <v>0.002</v>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.029</v>
+        <v>1.415</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.398</v>
+        <v>0.392</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.57</v>
+        <v>0.379</v>
       </c>
       <c r="C21" t="n">
         <v>0.001</v>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.138</v>
+        <v>0.931</v>
       </c>
       <c r="C22" t="n">
         <v>0.003</v>
       </c>
       <c r="D22" t="n">
-        <v>0.188</v>
+        <v>0.183</v>
       </c>
       <c r="E22" t="n">
         <v>0.714</v>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.115</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.531</v>
+        <v>0.521</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.325</v>
+        <v>0.998</v>
       </c>
       <c r="C24" t="n">
         <v>0.003</v>
       </c>
       <c r="D24" t="n">
-        <v>0.628</v>
+        <v>0.61</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.68</v>
+        <v>1.02</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D25" t="n">
-        <v>0.667</v>
+        <v>0.645</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.011</v>
+        <v>0.828</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D26" t="n">
         <v>0.11</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.262</v>
+        <v>1.3</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D27" t="n">
-        <v>0.624</v>
+        <v>0.617</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.322</v>
+        <v>1.159</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D28" t="n">
-        <v>0.702</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8080000000000001</v>
+        <v>1.854</v>
       </c>
       <c r="C29" t="n">
         <v>0.002</v>
@@ -1269,13 +1269,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.271</v>
+        <v>1.09</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D30" t="n">
-        <v>0.618</v>
+        <v>0.595</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1298,13 +1298,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.778</v>
+        <v>0.496</v>
       </c>
       <c r="C31" t="n">
         <v>0.002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.317</v>
+        <v>0.308</v>
       </c>
       <c r="E31" t="n">
         <v>0.857</v>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.733</v>
+        <v>0.604</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D32" t="n">
-        <v>0.199</v>
+        <v>0.196</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1356,25 +1356,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.087</v>
+        <v>0.971</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.199</v>
+        <v>0.416</v>
       </c>
       <c r="E33" t="n">
-        <v>0.429</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Fanny Yusuf</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -1385,16 +1385,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.876</v>
+        <v>1.106</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209</v>
+        <v>0.541</v>
       </c>
       <c r="E34" t="n">
-        <v>0.857</v>
+        <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1414,13 +1414,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.336</v>
+        <v>1.1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.639</v>
+        <v>0.546</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1439,24 +1439,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO_1.png</t>
+          <t>FY_4.png</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.185</v>
+        <v>1.063</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="D36" t="n">
-        <v>0.539</v>
+        <v>0.44</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.857</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Fanny Yusuf</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1468,17 +1468,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO_2.png</t>
+          <t>TO_1.png</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.13</v>
+        <v>0.661</v>
       </c>
       <c r="C37" t="n">
         <v>0.002</v>
       </c>
       <c r="D37" t="n">
-        <v>0.513</v>
+        <v>0.441</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1497,17 +1497,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TO_3.png</t>
+          <t>TO_2.png</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.954</v>
+        <v>0.762</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D38" t="n">
-        <v>0.513</v>
+        <v>0.456</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1526,46 +1526,46 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO_4.png</t>
+          <t>TO_3.png</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.697</v>
+        <v>0.649</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D39" t="n">
-        <v>0.11</v>
+        <v>0.493</v>
       </c>
       <c r="E39" t="n">
-        <v>0.571</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TO_5.png</t>
+          <t>TO_4.png</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.991</v>
+        <v>10.388</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002</v>
+        <v>0.034</v>
       </c>
       <c r="D40" t="n">
-        <v>0.496</v>
+        <v>0.162</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1584,24 +1584,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TD_1.png</t>
+          <t>TO_5.png</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.637</v>
+        <v>2.492</v>
       </c>
       <c r="C41" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="D41" t="n">
-        <v>0.038</v>
+        <v>0.129</v>
       </c>
       <c r="E41" t="n">
-        <v>0.286</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1613,17 +1613,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD_2.png</t>
+          <t>TD_1.png</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.977</v>
+        <v>1.519</v>
       </c>
       <c r="C42" t="n">
         <v>0.005</v>
       </c>
       <c r="D42" t="n">
-        <v>0.052</v>
+        <v>0.033</v>
       </c>
       <c r="E42" t="n">
         <v>0.429</v>
@@ -1642,58 +1642,87 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TD_3.png</t>
+          <t>TD_2.png</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.214</v>
+        <v>1.933</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="E43" t="n">
-        <v>0.571</v>
+        <v>0.429</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>TD_3.png</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Benar</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>TD_4.png</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1.253</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.156</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Fanny Yusuf</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Salah</t>
+      <c r="B45" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Benar</t>
         </is>
       </c>
     </row>
